--- a/table/Rank.xlsx
+++ b/table/Rank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13732" windowHeight="11565"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="1" r:id="rId1"/>
@@ -13,40 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-道具</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -207,19 +175,13 @@
     <t>教授羊</t>
   </si>
   <si>
-    <t>0#10</t>
+    <t>0#20</t>
   </si>
   <si>
     <t>12#13</t>
   </si>
   <si>
     <t>院士羊</t>
-  </si>
-  <si>
-    <t>0#11</t>
-  </si>
-  <si>
-    <t>12#14</t>
   </si>
 </sst>
 </file>
@@ -232,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,17 +352,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -881,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,12 +846,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,12 +1173,12 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9.02654867256637" style="1"/>
+    <col min="1" max="16384" width="9.025" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1322,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1344,7 +1289,7 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3">
@@ -1370,7 +1315,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3">
@@ -1396,7 +1341,7 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3">
@@ -1422,7 +1367,7 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3">
@@ -1448,7 +1393,7 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3">
@@ -1474,7 +1419,7 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3">
@@ -1500,7 +1445,7 @@
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="3">
@@ -1526,7 +1471,7 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3">
@@ -1552,7 +1497,7 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3">
@@ -1578,7 +1523,7 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="3">
@@ -1604,13 +1549,13 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>10</v>
       </c>
       <c r="E15" s="3">
@@ -1630,7 +1575,7 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3">
@@ -1642,7 +1587,9 @@
       <c r="E16" s="3">
         <v>40</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>53</v>
       </c>
@@ -1654,7 +1601,7 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1">
@@ -1664,13 +1611,16 @@
         <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1"/>
@@ -1703,6 +1653,5 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/table/Rank.xlsx
+++ b/table/Rank.xlsx
@@ -13,8 +13,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>James</author>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>James:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1复活
+2提示错误
+3等级保护</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1  没有皮肤奖励
+0 随机
+数字 为固定皮肤ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -28,18 +87,24 @@
     <t>答题时间</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>胜率</t>
+    <t>星星数</t>
+  </si>
+  <si>
+    <t>取题范围（胜率）</t>
   </si>
   <si>
     <t>答题匹配段位题库</t>
   </si>
   <si>
+    <t>奖励道具</t>
+  </si>
+  <si>
+    <t>奖励道具数量</t>
+  </si>
+  <si>
+    <t>奖励皮肤</t>
+  </si>
+  <si>
     <t>rank</t>
   </si>
   <si>
@@ -52,15 +117,21 @@
     <t>level</t>
   </si>
   <si>
-    <t>reward</t>
-  </si>
-  <si>
     <t>winRate</t>
   </si>
   <si>
     <t>AnswerPhase</t>
   </si>
   <si>
+    <t>rewardProp</t>
+  </si>
+  <si>
+    <t>rewardPropNumber</t>
+  </si>
+  <si>
+    <t>rewardSkin</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -79,6 +150,12 @@
     <t>1#2</t>
   </si>
   <si>
+    <t>1#2#3</t>
+  </si>
+  <si>
+    <t>1#1#1</t>
+  </si>
+  <si>
     <t>幼儿园羊</t>
   </si>
   <si>
@@ -88,85 +165,109 @@
     <t>小学羊</t>
   </si>
   <si>
-    <t>85#90</t>
+    <t>80#90</t>
   </si>
   <si>
     <t>3#4</t>
   </si>
   <si>
+    <t>2#1</t>
+  </si>
+  <si>
     <t>初中羊</t>
   </si>
   <si>
-    <t>80#85</t>
+    <t>70#80</t>
   </si>
   <si>
     <t>4#5</t>
   </si>
   <si>
+    <t>1#2#1</t>
+  </si>
+  <si>
     <t>高中羊</t>
   </si>
   <si>
-    <t>75#80</t>
+    <t>60#70</t>
   </si>
   <si>
     <t>5#6</t>
   </si>
   <si>
+    <t>2#4</t>
+  </si>
+  <si>
     <t>大学羊</t>
   </si>
   <si>
-    <t>70#75</t>
+    <t>50#60</t>
   </si>
   <si>
     <t>6#7</t>
   </si>
   <si>
+    <t>4#2</t>
+  </si>
+  <si>
     <t>硕士羊</t>
   </si>
   <si>
-    <t>60#70</t>
+    <t>40#50</t>
   </si>
   <si>
     <t>7#8</t>
   </si>
   <si>
+    <t>2#3#1</t>
+  </si>
+  <si>
     <t>博士羊</t>
   </si>
   <si>
-    <t>50#60</t>
+    <t>30#40</t>
   </si>
   <si>
     <t>8#9</t>
   </si>
   <si>
+    <t>2#5</t>
+  </si>
+  <si>
     <t>博士后羊</t>
   </si>
   <si>
-    <t>40#50</t>
+    <t>20#30</t>
   </si>
   <si>
     <t>9#10</t>
   </si>
   <si>
+    <t>5#2</t>
+  </si>
+  <si>
     <t>助教羊</t>
   </si>
   <si>
-    <t>30#40</t>
+    <t>10#20</t>
   </si>
   <si>
     <t>10#11</t>
   </si>
   <si>
+    <t>3#5#1</t>
+  </si>
+  <si>
     <t>讲师羊</t>
   </si>
   <si>
-    <t>20#30</t>
+    <t>5#10</t>
   </si>
   <si>
     <t>副教授羊</t>
   </si>
   <si>
-    <t>10#20</t>
+    <t>3#5</t>
   </si>
   <si>
     <t>11#12</t>
@@ -175,13 +276,19 @@
     <t>教授羊</t>
   </si>
   <si>
-    <t>0#20</t>
+    <t>1#3</t>
   </si>
   <si>
     <t>12#13</t>
   </si>
   <si>
+    <t>3#5#2</t>
+  </si>
+  <si>
     <t>院士羊</t>
+  </si>
+  <si>
+    <t>0#1</t>
   </si>
 </sst>
 </file>
@@ -194,7 +301,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +459,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -832,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,6 +968,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1170,18 +1297,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.025" style="1"/>
+    <col min="1" max="2" width="9.025" style="1"/>
+    <col min="3" max="3" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.025" style="1"/>
+    <col min="6" max="7" width="17.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.775" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.025" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,71 +1339,92 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" ht="15" customHeight="1" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
@@ -1275,22 +1432,29 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -1299,128 +1463,163 @@
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:8">
+    <row r="7" ht="15" customHeight="1" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8">
+    <row r="9" ht="15" customHeight="1" spans="1:11">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8"/>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -1429,24 +1628,31 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:8">
+    <row r="11" ht="15" customHeight="1" spans="1:11">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
         <v>7</v>
@@ -1455,76 +1661,97 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3">
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:8">
+    <row r="13" ht="15" customHeight="1" spans="1:11">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>8</v>
@@ -1533,24 +1760,31 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>34</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:8">
+    <row r="15" ht="15" customHeight="1" spans="1:11">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3">
         <v>8</v>
@@ -1559,69 +1793,90 @@
         <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3">
-        <v>40</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:8">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1">
         <v>9</v>
       </c>
       <c r="D17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" ht="15" customHeight="1"/>
     <row r="20" ht="15" customHeight="1"/>
@@ -1653,5 +1908,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>